--- a/data/trans_orig/P42C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Estudios-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>123619</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>102897</v>
+        <v>102725</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>144106</v>
+        <v>146416</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1272913235401094</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1059534625210812</v>
+        <v>0.1057768300976049</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1483867045850905</v>
+        <v>0.150764982565269</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>847533</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>827046</v>
+        <v>824736</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>868255</v>
+        <v>868427</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8727086764598906</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8516132954149096</v>
+        <v>0.8492350174347312</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8940465374789188</v>
+        <v>0.8942231699023951</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>346959</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>315168</v>
+        <v>311518</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>380858</v>
+        <v>382535</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2545974787875682</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2312691968240268</v>
+        <v>0.2285910043873526</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.279472267011236</v>
+        <v>0.2807030587720524</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>1015815</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>981916</v>
+        <v>980239</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1047606</v>
+        <v>1051256</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7454025212124318</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7205277329887639</v>
+        <v>0.7192969412279476</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7687308031759732</v>
+        <v>0.7714089956126474</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>184152</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>163011</v>
+        <v>159170</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>205432</v>
+        <v>204663</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4567967027098297</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4043557829172067</v>
+        <v>0.3948275636563444</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5095826861446613</v>
+        <v>0.5076743212373682</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>218986</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>197706</v>
+        <v>198475</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>240127</v>
+        <v>243968</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5432032972901704</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4904173138553387</v>
+        <v>0.4923256787626317</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5956442170827934</v>
+        <v>0.6051724363436556</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>654730</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>608863</v>
+        <v>606566</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>705742</v>
+        <v>701657</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2392089208032445</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2224512315053772</v>
+        <v>0.2216117995007549</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2578464427649871</v>
+        <v>0.2563537179142041</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>2082334</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2031322</v>
+        <v>2035407</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2128201</v>
+        <v>2130498</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7607910791967555</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7421535572350129</v>
+        <v>0.743646282085796</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7775487684946227</v>
+        <v>0.7783882004992451</v>
       </c>
     </row>
     <row r="15">
@@ -1104,19 +1104,19 @@
         <v>24976</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15888</v>
+        <v>16171</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38301</v>
+        <v>38407</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03606296054876995</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02294038753469967</v>
+        <v>0.02334970414318969</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05530211366554814</v>
+        <v>0.05545581308697786</v>
       </c>
     </row>
     <row r="5">
@@ -1133,19 +1133,19 @@
         <v>667593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>654268</v>
+        <v>654162</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>676681</v>
+        <v>676398</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9639370394512301</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9446978863344518</v>
+        <v>0.9445441869130221</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9770596124653004</v>
+        <v>0.9766502958568103</v>
       </c>
     </row>
     <row r="6">
@@ -1195,19 +1195,19 @@
         <v>226350</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>197006</v>
+        <v>199527</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>254034</v>
+        <v>258028</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1421877117024448</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1237547059071438</v>
+        <v>0.1253385667483018</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1595785484459046</v>
+        <v>0.1620871807910128</v>
       </c>
     </row>
     <row r="8">
@@ -1224,19 +1224,19 @@
         <v>1365558</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1337874</v>
+        <v>1333880</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1394902</v>
+        <v>1392381</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8578122882975552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8404214515540955</v>
+        <v>0.8379128192089874</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8762452940928562</v>
+        <v>0.8746614332516982</v>
       </c>
     </row>
     <row r="9">
@@ -1286,19 +1286,19 @@
         <v>176779</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>156008</v>
+        <v>158218</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>198853</v>
+        <v>198351</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3668296579090786</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3237278543018394</v>
+        <v>0.328314764203027</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.412634749777021</v>
+        <v>0.411593073159512</v>
       </c>
     </row>
     <row r="11">
@@ -1315,19 +1315,19 @@
         <v>305132</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>283058</v>
+        <v>283560</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>325903</v>
+        <v>323693</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6331703420909215</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5873652502229789</v>
+        <v>0.588406926840488</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6762721456981606</v>
+        <v>0.6716852357969729</v>
       </c>
     </row>
     <row r="12">
@@ -1377,19 +1377,19 @@
         <v>428105</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>388080</v>
+        <v>387212</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>467387</v>
+        <v>466479</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1547523891186857</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1402839243389849</v>
+        <v>0.1399703091818253</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1689522001071929</v>
+        <v>0.1686239998421502</v>
       </c>
     </row>
     <row r="14">
@@ -1406,19 +1406,19 @@
         <v>2338283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2299001</v>
+        <v>2299909</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2378308</v>
+        <v>2379176</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8452476108813143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8310477998928072</v>
+        <v>0.8313760001578496</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8597160756610152</v>
+        <v>0.8600296908181745</v>
       </c>
     </row>
     <row r="15">
@@ -1585,19 +1585,19 @@
         <v>28742</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21354</v>
+        <v>20980</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38946</v>
+        <v>38689</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06155260631106164</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04573145790812738</v>
+        <v>0.04493077069824482</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0834050369776313</v>
+        <v>0.08285390916926874</v>
       </c>
     </row>
     <row r="5">
@@ -1614,19 +1614,19 @@
         <v>438207</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>428003</v>
+        <v>428260</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>445595</v>
+        <v>445969</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9384473936889384</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9165949630223685</v>
+        <v>0.9171460908307317</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9542685420918727</v>
+        <v>0.9550692293017559</v>
       </c>
     </row>
     <row r="6">
@@ -1676,19 +1676,19 @@
         <v>268747</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>244881</v>
+        <v>241484</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>295963</v>
+        <v>296098</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2254157901974309</v>
+        <v>0.2254157901974308</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2053977803081486</v>
+        <v>0.2025486574544952</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2482439935378193</v>
+        <v>0.2483571817684083</v>
       </c>
     </row>
     <row r="8">
@@ -1705,19 +1705,19 @@
         <v>923479</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>896263</v>
+        <v>896128</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>947345</v>
+        <v>950742</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7745842098025693</v>
+        <v>0.774584209802569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7517560064621808</v>
+        <v>0.7516428182315917</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7946022196918514</v>
+        <v>0.7974513425455049</v>
       </c>
     </row>
     <row r="9">
@@ -1767,19 +1767,19 @@
         <v>213974</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>195435</v>
+        <v>195882</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>231901</v>
+        <v>235797</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4783118752851009</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4368696723321299</v>
+        <v>0.4378686971930546</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5183845466008394</v>
+        <v>0.527093972149965</v>
       </c>
     </row>
     <row r="11">
@@ -1796,19 +1796,19 @@
         <v>233379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>215452</v>
+        <v>211556</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>251918</v>
+        <v>251471</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5216881247148991</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4816154533991608</v>
+        <v>0.4729060278500352</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5631303276678702</v>
+        <v>0.5621313028069455</v>
       </c>
     </row>
     <row r="12">
@@ -1858,19 +1858,19 @@
         <v>511463</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>475377</v>
+        <v>480750</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>545729</v>
+        <v>546874</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2427988916446621</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2256684610228326</v>
+        <v>0.228219096328388</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2590654722863626</v>
+        <v>0.2596089493678153</v>
       </c>
     </row>
     <row r="14">
@@ -1887,19 +1887,19 @@
         <v>1595065</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1560799</v>
+        <v>1559654</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1631151</v>
+        <v>1625778</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7572011083553379</v>
+        <v>0.7572011083553377</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7409345277136373</v>
+        <v>0.740391050632185</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7743315389771674</v>
+        <v>0.771780903671612</v>
       </c>
     </row>
     <row r="15">
